--- a/docss/trend/spain/E_cirrhosis.xlsx
+++ b/docss/trend/spain/E_cirrhosis.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej12_Cirrosis_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej12_Cirrosis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12813,7 +12813,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12837,13 +12837,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>6.1617083091820138E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C2">
-        <v>2.2565008203015352E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D2">
-        <v>9.3021422636555634E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12851,13 +12851,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>6.969496734294188E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C3">
-        <v>3.0388588147547933E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D3">
-        <v>0.10317961495791463</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12865,13 +12865,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>6.3379872584338845E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C4">
-        <v>2.7205270567751325E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D4">
-        <v>9.1042172894707549E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12879,13 +12879,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>7.6567412835542942E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="C5">
-        <v>8.6734406237938492E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D5">
-        <v>0.12887670595820683</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12893,13 +12893,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>9.0663071477565499E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C6">
-        <v>3.7471746274877142E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D6">
-        <v>0.13377009891698399</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12907,13 +12907,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>5.4917914746929523E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C7">
-        <v>6.5020028292056805E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D7">
-        <v>8.9885013809442957E-2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12921,13 +12921,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>5.0351678357476178E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C8">
-        <v>2.735973695049751E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D8">
-        <v>7.0015001691791673E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12935,13 +12935,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>5.5442021073793347E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C9">
-        <v>1.6820439692412443E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D9">
-        <v>8.5065422489944253E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12949,13 +12949,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>5.6659095317542887E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="C10">
-        <v>1.4964300923249759E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D10">
-        <v>9.1792022690082783E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12963,13 +12963,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>5.0185158288944265E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C11">
-        <v>1.6344807236622644E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="D11">
-        <v>7.6201441112368831E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12977,13 +12977,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>6.3419758248939528E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="C12">
-        <v>3.3675515530511728E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D12">
-        <v>8.5495641133337741E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12991,13 +12991,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>9.3781707244671386E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="C13">
-        <v>2.563358421150351E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D13">
-        <v>0.14885849200020601</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13005,13 +13005,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>7.6822132722034336E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="C14">
-        <v>2.3744430912949935E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D14">
-        <v>0.11979741308603591</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13019,13 +13019,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>5.31061648194961E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C15">
-        <v>9.19812017091284E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D15">
-        <v>9.0603210283432073E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13033,13 +13033,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>9.713868299334516E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="C16">
-        <v>4.0357191202129709E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D16">
-        <v>0.14472398566055425</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
   </sheetData>
